--- a/output/zaluski/2022/sheets/year_2022.xlsx
+++ b/output/zaluski/2022/sheets/year_2022.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>64.44838709677418</v>
+        <v>64.71136583759728</v>
       </c>
       <c r="C2" t="n">
-        <v>57.41290322580645</v>
+        <v>58.02456815289119</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>64.70714285714286</v>
+        <v>64.89013533764431</v>
       </c>
       <c r="C3" t="n">
-        <v>55.66071428571428</v>
+        <v>58.18731632619446</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>63.80967741935483</v>
+        <v>66.14690445346294</v>
       </c>
       <c r="C4" t="n">
-        <v>56.96451612903225</v>
+        <v>59.67941314147274</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>66.69</v>
+        <v>66.77988892322306</v>
       </c>
       <c r="C5" t="n">
-        <v>60.22333333333333</v>
+        <v>61.3945033423464</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>67.15806451612903</v>
+        <v>67.23266154424599</v>
       </c>
       <c r="C6" t="n">
-        <v>59.82903225806452</v>
+        <v>60.45556515704517</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>68.61666666666666</v>
+        <v>68.66315426717451</v>
       </c>
       <c r="C7" t="n">
-        <v>61.76666666666667</v>
+        <v>62.1212392507185</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>68.16129032258064</v>
+        <v>68.20611741828326</v>
       </c>
       <c r="C8" t="n">
-        <v>61.05483870967741</v>
+        <v>61.29537768481639</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>62.16774193548388</v>
+        <v>68.88421293088139</v>
       </c>
       <c r="C9" t="n">
-        <v>58.19354838709678</v>
+        <v>62.47827866539293</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>68.80333333333333</v>
+        <v>68.88138883321301</v>
       </c>
       <c r="C10" t="n">
-        <v>61.52333333333333</v>
+        <v>62.00894704834481</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.27096774193548</v>
+        <v>67.83998219387725</v>
       </c>
       <c r="C11" t="n">
-        <v>34.72903225806451</v>
+        <v>59.96439663700664</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>68.03</v>
+        <v>68.1682200265975</v>
       </c>
       <c r="C12" t="n">
-        <v>61.17333333333332</v>
+        <v>61.64982175510963</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>66.81935483870969</v>
+        <v>67.26637202688062</v>
       </c>
       <c r="C13" t="n">
-        <v>58.04838709677419</v>
+        <v>60.60762308601323</v>
       </c>
     </row>
   </sheetData>
